--- a/data/case1/20/Q2_3.xlsx
+++ b/data/case1/20/Q2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.14406964132206923</v>
+        <v>0.17344416360779746</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999958511637</v>
+        <v>-0.0059999999954349903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999656181728</v>
+        <v>-0.0039999999960631527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999362740937</v>
+        <v>-0.0079999999928066501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.030436367851131685</v>
+        <v>-0.002999999996183611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999965926591</v>
+        <v>-0.001999999996257884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999911655344</v>
+        <v>-0.0099999999903150893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0072202187900267667</v>
+        <v>-0.0099999999901796421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999596875817</v>
+        <v>0.022381441216825504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999562152482</v>
+        <v>-0.0019999999956894499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999490142315</v>
+        <v>-0.0029999999948886469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999447631325</v>
+        <v>-0.0034999999944154148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999941191767</v>
+        <v>-0.0034999999940659166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999100506258</v>
+        <v>-0.0079999999906670283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995662791719</v>
+        <v>-0.00099999999576816379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999493367504</v>
+        <v>-0.0019999999949669167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999486186582</v>
+        <v>-0.0019999999948820957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999349422666</v>
+        <v>-0.0039999999933897357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999716702206</v>
+        <v>-0.0039999999968918232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999687605481</v>
+        <v>-0.0039999999966937594</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999682667209</v>
+        <v>-0.0039999999966360278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0090244466050659611</v>
+        <v>-0.0039999999966244815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999566257003</v>
+        <v>-0.0049999999950465224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999851678218</v>
+        <v>-0.034453546048953676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999849721561</v>
+        <v>-0.019999999983227212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999616177604</v>
+        <v>-0.002499999995745128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999606118983</v>
+        <v>-0.0024999999956474284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.001999999958444576</v>
+        <v>-0.016857821416547125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999209304775</v>
+        <v>-0.0069999999916525724</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999562925677</v>
+        <v>-0.059999999952587313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999220176079</v>
+        <v>-0.0069999999921073197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999029165565</v>
+        <v>-0.0064034339292415865</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.043637176224368801</v>
+        <v>0.060024928256360965</v>
       </c>
     </row>
   </sheetData>
